--- a/Results/results_bootstrap_100k_replicates-14Oct2022.xlsx
+++ b/Results/results_bootstrap_100k_replicates-14Oct2022.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usr\rick\doc\Students\Kaeser, Pascal\Munc13 Paper\Munc13-Paper\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="5145"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -57,22 +63,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,38 +92,319 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.4453125" customWidth="true"/>
-    <col min="2" max="2" width="6.3125" customWidth="true"/>
-    <col min="3" max="3" width="11.64453125" customWidth="true"/>
-    <col min="4" max="4" width="13.64453125" customWidth="true"/>
-    <col min="5" max="5" width="15.1796875" customWidth="true"/>
-    <col min="6" max="6" width="12.64453125" customWidth="true"/>
-    <col min="7" max="7" width="11.64453125" customWidth="true"/>
+    <col min="1" max="1" width="25.46484375" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -134,7 +427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -147,8 +440,8 @@
       <c r="D2">
         <v>0.99807572899300445</v>
       </c>
-      <c r="E2">
-        <v>0.083860000000000004</v>
+      <c r="E2" s="2">
+        <v>8.3860000000000004E-2</v>
       </c>
       <c r="F2">
         <v>0.83782352879016753</v>
@@ -157,7 +450,7 @@
         <v>4.5677917131418297</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -171,7 +464,7 @@
         <v>0.42667528519679082</v>
       </c>
       <c r="E3">
-        <v>0.014590000000000001</v>
+        <v>1.4590000000000001E-2</v>
       </c>
       <c r="F3">
         <v>1.0481038742951765</v>
@@ -180,7 +473,7 @@
         <v>2.7080554961028342</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -193,8 +486,8 @@
       <c r="D4">
         <v>1.076207202566376</v>
       </c>
-      <c r="E4">
-        <v>9.0000000000000006e-05</v>
+      <c r="E4" s="2">
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="F4">
         <v>1.7135827198454561</v>
@@ -203,7 +496,7 @@
         <v>5.8636112936856808</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -217,7 +510,7 @@
         <v>0.76598806145001319</v>
       </c>
       <c r="E5">
-        <v>9.9999000009999908e-06</v>
+        <v>9.9999000009999908E-6</v>
       </c>
       <c r="F5">
         <v>2.0467655231631663</v>
@@ -226,7 +519,7 @@
         <v>5.0231620128516665</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -239,8 +532,8 @@
       <c r="D6">
         <v>0.91431014396216448</v>
       </c>
-      <c r="E6">
-        <v>0.0089700000000000005</v>
+      <c r="E6" s="2">
+        <v>8.9700000000000005E-3</v>
       </c>
       <c r="F6">
         <v>1.1609561232084311</v>
@@ -249,7 +542,7 @@
         <v>4.6790053508578175</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -263,7 +556,7 @@
         <v>0.2267212489587293</v>
       </c>
       <c r="E7">
-        <v>9.9999000009999908e-06</v>
+        <v>9.9999000009999908E-6</v>
       </c>
       <c r="F7">
         <v>1.9950326838993664</v>
@@ -272,7 +565,7 @@
         <v>2.8819476899386047</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -285,8 +578,8 @@
       <c r="D8">
         <v>0.42453802241808969</v>
       </c>
-      <c r="E8">
-        <v>0.041799999999999997</v>
+      <c r="E8" s="2">
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="F8">
         <v>0.94844125846477434</v>
@@ -295,7 +588,7 @@
         <v>2.5990656583526479</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -309,7 +602,7 @@
         <v>0.11345914562087722</v>
       </c>
       <c r="E9">
-        <v>9.9999000009999908e-06</v>
+        <v>9.9999000009999908E-6</v>
       </c>
       <c r="F9">
         <v>1.3110735779232743</v>
@@ -318,7 +611,7 @@
         <v>1.7562063158798273</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -331,7 +624,7 @@
       <c r="D10">
         <v>0.14697340107004883</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>0.30886000000000002</v>
       </c>
       <c r="F10">
@@ -341,7 +634,7 @@
         <v>1.3977270317789074</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -352,7 +645,7 @@
         <v>1.0607866654730749</v>
       </c>
       <c r="D11">
-        <v>0.068956224645870673</v>
+        <v>6.8956224645870673E-2</v>
       </c>
       <c r="E11">
         <v>0.18226000000000001</v>
@@ -364,7 +657,7 @@
         <v>1.2054989690284703</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -377,7 +670,7 @@
       <c r="D12">
         <v>0.24601685886027855</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>0.39143</v>
       </c>
       <c r="F12">
@@ -387,7 +680,7 @@
         <v>1.646266341136571</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -411,5 +704,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>